--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,136 +40,145 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>illegal</t>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>sorry</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>evil</t>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>disturbing</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>disturbing</t>
+    <t>seriously</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>fucked</t>
   </si>
   <si>
     <t>serious</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
+    <t>black</t>
+  </si>
+  <si>
     <t>fake</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>brilliant</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>live</t>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>many</t>
   </si>
   <si>
     <t>new</t>
@@ -178,64 +187,61 @@
     <t>social</t>
   </si>
   <si>
-    <t>many</t>
+    <t>right</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>real</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>want</t>
+    <t>world</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>watching</t>
   </si>
   <si>
     <t>twitter</t>
   </si>
   <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>media</t>
+    <t>watch</t>
   </si>
   <si>
     <t>dilemma</t>
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>’</t>
@@ -602,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -674,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -692,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -721,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -739,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -763,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -771,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9375</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -789,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -813,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -821,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -839,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -863,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -871,49 +877,49 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9333333333333333</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C7">
+        <v>59</v>
+      </c>
+      <c r="D7">
+        <v>59</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7">
+        <v>0.7543859649122807</v>
+      </c>
+      <c r="L7">
+        <v>43</v>
+      </c>
+      <c r="M7">
+        <v>43</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>14</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7">
-        <v>0.7719298245614035</v>
-      </c>
-      <c r="L7">
-        <v>44</v>
-      </c>
-      <c r="M7">
-        <v>44</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -921,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -939,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.7692307692307693</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -963,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -971,13 +977,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9090909090909091</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -989,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.7066666666666667</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1013,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1021,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8947368421052632</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1042,16 +1048,16 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.6551724137931034</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L10">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="M10">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1063,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1071,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.875</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1089,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.65</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1113,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1121,13 +1127,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8461538461538461</v>
+        <v>0.8125</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1139,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.631578947368421</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L12">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1163,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1171,13 +1177,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8235294117647058</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1189,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K13">
         <v>0.6111111111111112</v>
@@ -1221,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1242,16 +1248,16 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.5454545454545454</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1263,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1271,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6956521739130435</v>
+        <v>0.75</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1289,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.5185185185185185</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1313,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1321,13 +1327,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6923076923076923</v>
+        <v>0.725</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1339,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1363,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1371,13 +1377,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6666666666666666</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="C17">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D17">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1389,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>0.4736842105263158</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L17">
         <v>9</v>
@@ -1413,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1421,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.65</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1442,16 +1448,16 @@
         <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>0.4375</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1463,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1471,13 +1477,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6153846153846154</v>
+        <v>0.7</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1489,19 +1495,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.391304347826087</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L19">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M19">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1513,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1521,13 +1527,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1539,19 +1545,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.3728813559322034</v>
+        <v>0.3032786885245902</v>
       </c>
       <c r="L20">
-        <v>22</v>
+        <v>333</v>
       </c>
       <c r="M20">
-        <v>22</v>
+        <v>333</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1563,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>37</v>
+        <v>765</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1571,13 +1577,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5833333333333334</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1589,19 +1595,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>0.3060109289617486</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L21">
-        <v>336</v>
+        <v>15</v>
       </c>
       <c r="M21">
-        <v>336</v>
+        <v>15</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1613,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>762</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1621,13 +1627,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5357142857142857</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1642,16 +1648,16 @@
         <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>0.2926829268292683</v>
+        <v>0.2535211267605634</v>
       </c>
       <c r="L22">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M22">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1663,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1671,13 +1677,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5106382978723404</v>
+        <v>0.625</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1689,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <v>0.2622950819672131</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1713,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1721,7 +1727,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4761904761904762</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -1739,19 +1745,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>0.2394366197183098</v>
+        <v>0.2315789473684211</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1763,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1771,37 +1777,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>12</v>
       </c>
-      <c r="D25">
-        <v>12</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>16</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K25">
-        <v>0.2222222222222222</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L25">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M25">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1813,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1821,13 +1827,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4102564102564102</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1839,31 +1845,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26">
+        <v>0.2054794520547945</v>
+      </c>
+      <c r="L26">
+        <v>15</v>
+      </c>
+      <c r="M26">
+        <v>15</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>58</v>
-      </c>
-      <c r="K26">
-        <v>0.2173913043478261</v>
-      </c>
-      <c r="L26">
-        <v>10</v>
-      </c>
-      <c r="M26">
-        <v>10</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1871,13 +1877,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2435897435897436</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1889,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K27">
-        <v>0.2153846153846154</v>
+        <v>0.2</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1913,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1921,37 +1927,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0711864406779661</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E28">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>274</v>
+        <v>8</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K28">
-        <v>0.2054794520547945</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1963,396 +1969,464 @@
         <v>0</v>
       </c>
       <c r="Q28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L29">
+        <v>9</v>
+      </c>
+      <c r="M29">
+        <v>9</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.4871794871794872</v>
+      </c>
+      <c r="C30">
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <v>19</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>20</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30">
+        <v>0.1411764705882353</v>
+      </c>
+      <c r="L30">
+        <v>12</v>
+      </c>
+      <c r="M30">
+        <v>12</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>19</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31">
+        <v>0.1343283582089552</v>
+      </c>
+      <c r="L31">
+        <v>9</v>
+      </c>
+      <c r="M31">
+        <v>9</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.217948717948718</v>
+      </c>
+      <c r="C32">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>61</v>
       </c>
-      <c r="K29">
-        <v>0.2037037037037037</v>
-      </c>
-      <c r="L29">
-        <v>11</v>
-      </c>
-      <c r="M29">
-        <v>11</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K30">
-        <v>0.1894736842105263</v>
-      </c>
-      <c r="L30">
-        <v>18</v>
-      </c>
-      <c r="M30">
-        <v>18</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
+      <c r="J32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32">
+        <v>0.1055555555555556</v>
+      </c>
+      <c r="L32">
+        <v>57</v>
+      </c>
+      <c r="M32">
+        <v>57</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.05802047781569966</v>
+      </c>
+      <c r="C33">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>23</v>
+      </c>
+      <c r="E33">
+        <v>0.26</v>
+      </c>
+      <c r="F33">
+        <v>0.74</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>276</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33">
+        <v>0.1039156626506024</v>
+      </c>
+      <c r="L33">
+        <v>69</v>
+      </c>
+      <c r="M33">
+        <v>69</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="J34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K34">
+        <v>0.09540636042402827</v>
+      </c>
+      <c r="L34">
+        <v>27</v>
+      </c>
+      <c r="M34">
+        <v>27</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="J35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K35">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="L35">
+        <v>31</v>
+      </c>
+      <c r="M35">
+        <v>31</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="J36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K36">
+        <v>0.08759124087591241</v>
+      </c>
+      <c r="L36">
+        <v>12</v>
+      </c>
+      <c r="M36">
+        <v>12</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="L37">
+        <v>44</v>
+      </c>
+      <c r="M37">
+        <v>44</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38">
+        <v>0.06984126984126984</v>
+      </c>
+      <c r="L38">
+        <v>22</v>
+      </c>
+      <c r="M38">
+        <v>22</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K39">
+        <v>0.05767012687427912</v>
+      </c>
+      <c r="L39">
+        <v>100</v>
+      </c>
+      <c r="M39">
+        <v>102</v>
+      </c>
+      <c r="N39">
+        <v>0.98</v>
+      </c>
+      <c r="O39">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K40">
+        <v>0.05249679897567221</v>
+      </c>
+      <c r="L40">
+        <v>41</v>
+      </c>
+      <c r="M40">
+        <v>41</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31">
-        <v>0.1882352941176471</v>
-      </c>
-      <c r="L31">
-        <v>16</v>
-      </c>
-      <c r="M31">
-        <v>16</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K32">
-        <v>0.18</v>
-      </c>
-      <c r="L32">
-        <v>9</v>
-      </c>
-      <c r="M32">
-        <v>9</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K33">
-        <v>0.1447368421052632</v>
-      </c>
-      <c r="L33">
-        <v>11</v>
-      </c>
-      <c r="M33">
-        <v>11</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K34">
-        <v>0.1167883211678832</v>
-      </c>
-      <c r="L34">
-        <v>16</v>
-      </c>
-      <c r="M34">
-        <v>16</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K35">
-        <v>0.1148148148148148</v>
-      </c>
-      <c r="L35">
-        <v>62</v>
-      </c>
-      <c r="M35">
-        <v>62</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K36">
-        <v>0.0812720848056537</v>
-      </c>
-      <c r="L36">
-        <v>23</v>
-      </c>
-      <c r="M36">
-        <v>23</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K37">
-        <v>0.07331378299120235</v>
-      </c>
-      <c r="L37">
-        <v>25</v>
-      </c>
-      <c r="M37">
-        <v>25</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K38">
-        <v>0.07088989441930618</v>
-      </c>
-      <c r="L38">
-        <v>47</v>
-      </c>
-      <c r="M38">
-        <v>48</v>
-      </c>
-      <c r="N38">
-        <v>0.98</v>
-      </c>
-      <c r="O38">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K39">
-        <v>0.06984126984126984</v>
-      </c>
-      <c r="L39">
-        <v>22</v>
-      </c>
-      <c r="M39">
-        <v>22</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K40">
-        <v>0.06912442396313365</v>
-      </c>
-      <c r="L40">
-        <v>120</v>
-      </c>
-      <c r="M40">
-        <v>120</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="K41">
-        <v>0.06655844155844155</v>
+        <v>0.04181184668989547</v>
       </c>
       <c r="L41">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M41">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K42">
-        <v>0.04737516005121639</v>
-      </c>
-      <c r="L42">
-        <v>37</v>
-      </c>
-      <c r="M42">
-        <v>37</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K43">
-        <v>0.04181184668989547</v>
-      </c>
-      <c r="L43">
-        <v>12</v>
-      </c>
-      <c r="M43">
-        <v>13</v>
-      </c>
-      <c r="N43">
-        <v>0.92</v>
-      </c>
-      <c r="O43">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
         <v>275</v>
       </c>
     </row>
